--- a/psychometric.xlsx
+++ b/psychometric.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C05DB23-AF4C-490B-84C1-DADBD6411BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C241A41-5508-49E1-A6B3-CEFA0711B06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="448">
   <si>
     <t>S.No</t>
   </si>
@@ -3652,7 +3652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3815,15 +3815,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3847,6 +3838,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5055,9 +5049,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6318527702357858E-2"/>
-          <c:y val="7.9149065395144769E-2"/>
-          <c:w val="0.91368147229764218"/>
+          <c:x val="6.992135489712227E-2"/>
+          <c:y val="5.0306930985381318E-2"/>
+          <c:w val="0.93007864510287774"/>
           <c:h val="0.84170186920971046"/>
         </c:manualLayout>
       </c:layout>
@@ -5068,6 +5062,15 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
@@ -5077,6 +5080,25 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -5174,6 +5196,38 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="85217280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -5198,6 +5252,10 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5206,10 +5264,23 @@
   </c:chart>
   <c:spPr>
     <a:noFill/>
-    <a:ln>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -5225,10 +5296,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="128"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="28"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -5240,6 +5311,30 @@
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d contourW="9525">
+          <a:contourClr>
+            <a:schemeClr val="tx1">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
     </c:floor>
     <c:sideWall>
       <c:thickness val="0"/>
@@ -5248,6 +5343,8 @@
         <a:ln w="25400">
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
@@ -5257,6 +5354,8 @@
         <a:ln w="25400">
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
       </c:spPr>
     </c:backWall>
     <c:plotArea>
@@ -5268,6 +5367,32 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
@@ -5277,6 +5402,25 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5386,6 +5530,38 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="85251968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -5408,6 +5584,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5415,10 +5598,23 @@
   </c:chart>
   <c:spPr>
     <a:noFill/>
-    <a:ln>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
@@ -5434,10 +5630,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="128"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="28"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -5449,6 +5645,30 @@
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d contourW="9525">
+          <a:contourClr>
+            <a:schemeClr val="tx1">
+              <a:tint val="75000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
     </c:floor>
     <c:sideWall>
       <c:thickness val="0"/>
@@ -5457,6 +5677,8 @@
         <a:ln w="25400">
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
@@ -5466,6 +5688,8 @@
         <a:ln w="25400">
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
       </c:spPr>
     </c:backWall>
     <c:plotArea>
@@ -5474,7 +5698,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.9448975280174172E-2"/>
+          <c:x val="1.4837943640002085E-2"/>
           <c:y val="0.11134753717876086"/>
           <c:w val="0.92803811661791513"/>
           <c:h val="0.74910872707705223"/>
@@ -5487,6 +5711,32 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
@@ -5496,6 +5746,25 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="r">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5653,6 +5922,38 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="85286912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -5677,6 +5978,10 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5685,16 +5990,1359 @@
   </c:chart>
   <c:spPr>
     <a:noFill/>
-    <a:ln>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="104">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:shade val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:tint val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="128">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>7</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:shade val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="3">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:tint val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="3">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="128">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>7</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:shade val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="3">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3" mods="ignoreCSTransforms">
+      <cs:styleClr val="0">
+        <a:tint val="25000"/>
+      </cs:styleClr>
+    </cs:fillRef>
+    <cs:effectRef idx="3">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5938,8 +7586,8 @@
       <xdr:rowOff>36123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3214688</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19431</xdr:rowOff>
     </xdr:to>
@@ -6007,15 +7655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3443122</xdr:colOff>
+      <xdr:colOff>3578059</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2644</xdr:rowOff>
+      <xdr:rowOff>645582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>83738</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1716593</xdr:rowOff>
+      <xdr:colOff>218675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160844</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6040,2274 +7688,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4099" name="Group 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D0E2AF-CD4E-4C08-B440-553F821F84B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks noChangeAspect="1"/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3724275" y="8709025"/>
-          <a:ext cx="3397250" cy="7686675"/>
-          <a:chOff x="347" y="601"/>
-          <a:chExt cx="342" cy="798"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4098" name="AutoShape 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAB11CA-A562-41D1-AC80-58746346D59E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="347" y="1251"/>
-            <a:ext cx="330" cy="148"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4100" name="Rectangle 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5423F85-3763-490A-97C4-CE5D245A0608}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="348" y="601"/>
-            <a:ext cx="329" cy="147"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4101" name="Rectangle 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE30D4BB-CA22-4A48-9994-147C50EB5E5D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="350" y="602"/>
-            <a:ext cx="17" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>A -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4102" name="Rectangle 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E5A912-1914-4380-B0C4-297FFAB4CBDB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="372" y="602"/>
-            <a:ext cx="104" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Natural Resource</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4103" name="Rectangle 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74540FDF-E0DD-4102-B385-06268FAC80DA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="482" y="602"/>
-            <a:ext cx="16" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>C -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4104" name="Rectangle 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302FA6D4-FC4A-458A-A4AE-145029D3DD18}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="504" y="602"/>
-            <a:ext cx="166" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Construction / Architecture</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4105" name="Rectangle 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DFA156-9982-450E-9408-66182A51F027}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="350" y="620"/>
-            <a:ext cx="17" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>V -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4106" name="Rectangle 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABB1C39-2770-4053-B1E9-7A42A24D81F1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="372" y="620"/>
-            <a:ext cx="83" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Arts / Comm.</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4107" name="Rectangle 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{527E8A71-A369-429D-BEF7-51E5D33DA264}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="482" y="620"/>
-            <a:ext cx="16" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>B -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4108" name="Rectangle 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016F1DC5-DCE3-4E71-995D-57728BDB5CAD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="504" y="620"/>
-            <a:ext cx="138" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Management / Admin</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4109" name="Rectangle 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4BADB8-7BCC-42E9-9DF9-50F870B0DB6F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="350" y="639"/>
-            <a:ext cx="15" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>E -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4110" name="Rectangle 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D7175B-EB79-49EC-8486-08EDD7AFAD2E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="372" y="639"/>
-            <a:ext cx="91" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Edu. / Training</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4111" name="Rectangle 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2784AA73-02B0-40D7-ACAB-A614D6F0E9D5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="482" y="639"/>
-            <a:ext cx="17" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>G -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4112" name="Rectangle 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AFA471-D00F-43ED-B704-E0E54F11A0E9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="504" y="639"/>
-            <a:ext cx="126" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Govt. / Public Admin</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4113" name="Rectangle 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0F702B-BF25-42DB-B189-37A89181561E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="350" y="657"/>
-            <a:ext cx="15" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>F -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4114" name="Rectangle 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C63111-3B23-4D31-A3E3-FFB98FEB8FEA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="372" y="657"/>
-            <a:ext cx="49" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Finance</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4115" name="Rectangle 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F1DAFE-A241-49D4-A1E9-8F311A6AED13}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="482" y="657"/>
-            <a:ext cx="16" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Y -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4116" name="Rectangle 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23FB63CF-C5F4-46B5-B286-99953F0F7915}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="504" y="657"/>
-            <a:ext cx="185" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Sci / Tech / Math /Engineering</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4117" name="Rectangle 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E239FEFC-DCFA-463D-9215-15F9B5E80194}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="350" y="675"/>
-            <a:ext cx="17" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>H -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4118" name="Rectangle 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1CCCE9-2B41-4420-9D96-E87CD39A5458}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="372" y="675"/>
-            <a:ext cx="89" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Health Science</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4119" name="Rectangle 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7503587-1BB2-4291-A8E1-2857CBB84F56}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="482" y="675"/>
-            <a:ext cx="15" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>T -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4120" name="Rectangle 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33A12AD-C21F-4BD9-A9AB-BB2D7E02BD3E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="504" y="675"/>
-            <a:ext cx="128" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Hospitality / Tourism</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4121" name="Rectangle 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E700AF-C1FC-47E8-BA11-4068E020C7B0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="350" y="694"/>
-            <a:ext cx="15" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>S -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4122" name="Rectangle 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1375DDC-2583-4828-BB56-B96B1CB52627}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="372" y="694"/>
-            <a:ext cx="98" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Human Services</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4123" name="Rectangle 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78EAA6F6-6B49-4FCC-9070-EA4E37313E8B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="482" y="694"/>
-            <a:ext cx="12" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>I -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4124" name="Rectangle 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31AA8C24-F75F-4F23-8004-F41DB96B4BB3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="504" y="694"/>
-            <a:ext cx="149" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Information Technology</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4125" name="Rectangle 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4BF818-6EC9-4546-97C6-F2F01A333967}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="350" y="712"/>
-            <a:ext cx="16" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>P -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4126" name="Rectangle 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56AE34D3-24C0-4C63-850A-7E6C051E995F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="372" y="712"/>
-            <a:ext cx="80" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Public Safety</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4127" name="Rectangle 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CC7DEC-8958-498B-9E42-C6CEC9F2120A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="482" y="712"/>
-            <a:ext cx="18" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>N -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4128" name="Rectangle 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD9A3ED-0CA1-4293-A220-289909E3F3C7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="504" y="712"/>
-            <a:ext cx="113" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Marketing &amp; Sales</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4129" name="Rectangle 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FB0D8A-81C9-445F-941F-2C7AF53C47F1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="350" y="729"/>
-            <a:ext cx="21" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>M -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4130" name="Rectangle 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CCF35E-42C7-4AFD-A771-A071BF6C137D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="372" y="729"/>
-            <a:ext cx="95" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Manufacturing</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4131" name="Rectangle 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8B1598-DDD4-4608-9F32-2D8946CE937F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="482" y="729"/>
-            <a:ext cx="17" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>D -</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4132" name="Rectangle 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFF51C4-E56B-41D6-8583-538FF195C322}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="504" y="729"/>
-            <a:ext cx="138" cy="18"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Logistics &amp; Distribution</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11132,15 +10512,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="HG6:HH6"/>
-    <mergeCell ref="HI6:HJ6"/>
-    <mergeCell ref="HU6:HV6"/>
-    <mergeCell ref="HW6:HX6"/>
-    <mergeCell ref="HY6:HZ6"/>
-    <mergeCell ref="HK6:HL6"/>
-    <mergeCell ref="HM6:HN6"/>
-    <mergeCell ref="HO6:HP6"/>
-    <mergeCell ref="HQ6:HR6"/>
+    <mergeCell ref="IK6:IL6"/>
+    <mergeCell ref="HS6:HT6"/>
+    <mergeCell ref="IC6:ID6"/>
+    <mergeCell ref="IE6:IF6"/>
+    <mergeCell ref="IG6:IH6"/>
+    <mergeCell ref="II6:IJ6"/>
+    <mergeCell ref="IA6:IB6"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="CU6:DI6"/>
     <mergeCell ref="DJ6:DZ6"/>
@@ -11152,13 +10530,15 @@
     <mergeCell ref="AV6:BJ6"/>
     <mergeCell ref="BK6:BY6"/>
     <mergeCell ref="BZ6:CN6"/>
-    <mergeCell ref="IK6:IL6"/>
-    <mergeCell ref="HS6:HT6"/>
-    <mergeCell ref="IC6:ID6"/>
-    <mergeCell ref="IE6:IF6"/>
-    <mergeCell ref="IG6:IH6"/>
-    <mergeCell ref="II6:IJ6"/>
-    <mergeCell ref="IA6:IB6"/>
+    <mergeCell ref="HG6:HH6"/>
+    <mergeCell ref="HI6:HJ6"/>
+    <mergeCell ref="HU6:HV6"/>
+    <mergeCell ref="HW6:HX6"/>
+    <mergeCell ref="HY6:HZ6"/>
+    <mergeCell ref="HK6:HL6"/>
+    <mergeCell ref="HM6:HN6"/>
+    <mergeCell ref="HO6:HP6"/>
+    <mergeCell ref="HQ6:HR6"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14819,14 +14199,14 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="98" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AO46" sqref="AO46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="48.81640625" customWidth="1"/>
+    <col min="2" max="2" width="48.36328125" customWidth="1"/>
     <col min="3" max="3" width="16.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="3.453125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.453125" style="2" customWidth="1"/>
@@ -14850,10 +14230,10 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="76"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
@@ -14862,14 +14242,12 @@
     <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="str">
         <f>C6&amp;B6</f>
-        <v>Name: Grade:  A Level</v>
+        <v>Grade:  A Level</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
@@ -14881,10 +14259,10 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -14895,7 +14273,7 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="126" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80" t="str">
+      <c r="A10" s="77" t="str">
         <f>VLOOKUP('SEC A &amp; B '!$F$130,'Ans-SecA'!B5:C10,2,FALSE)</f>
         <v>Dominant Type:  Conventional
 A person with a "Conventional Personality" tends to be careful, conforming, conservative, conscientious, self-controlled, and structured.
@@ -14904,7 +14282,7 @@
       <c r="B10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="81"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="44"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -14917,10 +14295,10 @@
       <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -14931,7 +14309,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="126" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="74" t="str">
+      <c r="A14" s="77" t="str">
         <f>VLOOKUP('SEC C &amp; D'!$I$26,'Ans-SecB'!$A$2:$B$17,2,FALSE)</f>
         <v xml:space="preserve">Dominant Type:  ISFJ
 ISFJs are also known as “NURTURERS”. ISFJs tend to be highly observant, stable, and practical. They have excellent memory for details and enjoy creating structure &amp; order. 
@@ -14940,7 +14318,7 @@
       <c r="B14" s="43"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="76"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="44"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -14959,10 +14337,10 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:10" s="7" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="6"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
@@ -14973,7 +14351,7 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="159.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="74" t="str">
+      <c r="A18" s="77" t="str">
         <f>VLOOKUP(SECE!B23,'Ans-SecC'!A2:B17,2,FALSE)</f>
         <v xml:space="preserve">Dominant Type:  M - Manufacturing
 The manufacturing career cluster is divided into four pathways. Pathways are grouped by the knowledge and skills required of occupations in these career fields. Learners need a solid background in math, science and technical skills. 
@@ -14982,7 +14360,7 @@
       <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="75"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="5"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
@@ -14990,7 +14368,7 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="75"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="5"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
@@ -14998,7 +14376,7 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="75"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="5"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
@@ -15006,7 +14384,7 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="75"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="5"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
@@ -15014,7 +14392,7 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="75"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="5"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
@@ -15022,7 +14400,7 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="75"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="5"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
@@ -15030,7 +14408,7 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="75"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="5"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
@@ -15038,7 +14416,7 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="76"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="8"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
@@ -15571,7 +14949,7 @@
       </c>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="117" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="104" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>35</v>
       </c>
@@ -15671,16 +15049,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20"/>
@@ -15725,18 +15103,18 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="D7" s="83" t="s">
+      <c r="B7" s="81"/>
+      <c r="D7" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="G7" s="83" t="s">
+      <c r="E7" s="81"/>
+      <c r="G7" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="84"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
